--- a/data/trans_bre/CONS_COL-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COL-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,17 +604,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,63%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-3,62; 0,0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 2,89</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 0,92</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 200,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,76%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,93; -1,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 0,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,66; 0,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,59; -44,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,74; 71,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,21; 30,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-38,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>43,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,84</t>
+          <t>-5,05; -0,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>-1,87; 6,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,48; 3,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,47; -2,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,32; 338,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,72; 60,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-7,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-40,05%</t>
+          <t>-38,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>193,97%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-4,57%</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,1</t>
+          <t>-11,16; -3,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,88</t>
+          <t>-2,01; 8,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,0</t>
+          <t>-7,73; 4,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,87; -19,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; 50,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,64; 21,21</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-8,04</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>36,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-60,59%</t>
+          <t>-22,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-70,43%</t>
+          <t>143,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-85,29%</t>
+          <t>-3,08%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,6; -0,24</t>
+          <t>-13,08; -2,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,03; -0,62</t>
+          <t>3,25; 63,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,6; -1,45</t>
+          <t>-8,0; 5,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-87,6; 4,31</t>
+          <t>-34,15; -7,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-88,42; -27,64</t>
+          <t>12,71; 297,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-97,53; -53,95</t>
+          <t>-18,18; 14,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,65</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,55%</t>
+          <t>-22,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-33,45%</t>
+          <t>-1,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-49,37%</t>
+          <t>19,29%</t>
         </is>
       </c>
     </row>
@@ -1122,39 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,3</t>
+          <t>-14,33; -3,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,87; -0,19</t>
+          <t>-8,33; 7,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,93; -1,51</t>
+          <t>1,05; 13,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-36,44; 46,74</t>
+          <t>-33,65; -9,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-54,53; -2,15</t>
+          <t>-19,43; 22,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-68,0; -22,79</t>
+          <t>2,22; 38,68</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,79</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>-21,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>113,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-36,45%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -1202,292 +1202,49 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 5,13</t>
+          <t>-5,11; -1,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 4,64</t>
+          <t>2,53; 32,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,41; -3,54</t>
+          <t>-0,66; 3,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 24,21</t>
+          <t>-30,13; -12,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 25,85</t>
+          <t>22,72; 352,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,3; -21,22</t>
+          <t>-3,91; 21,9</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,51</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>18,1</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-8,15</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-3,8%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>64,9%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-23,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 4,47</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 44,25</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-12,69; -3,33</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-18,17; 11,93</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>10,42; 175,86</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-34,78; -10,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>6,13</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-7,9</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>17,09%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>17,24%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-20,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 13,08</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 11,43</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-12,32; -2,9</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 36,67</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 36,49</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-30,57; -8,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>33,42%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-21,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 2,09</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 13,85</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4,17; -1,61</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-9,52; 11,11</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>9,95; 118,72</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-28,85; -12,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/CONS_COL-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COL-Edad-trans_bre.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,0; 4,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,0</t>
+          <t>-2,07; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,89</t>
+          <t>0,24; 2,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-84,38%</t>
+          <t>-80,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; -1,36</t>
+          <t>-4,44; -0,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,43</t>
+          <t>-3,18; 0,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-97,59; -44,58</t>
+          <t>-97,3; -25,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-90,74; 71,12</t>
+          <t>-89,22; 104,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-38,98%</t>
+          <t>-46,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,05; -0,1</t>
+          <t>-5,12; -0,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 6,67</t>
+          <t>-2,17; 6,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,47; -2,27</t>
+          <t>-68,32; -13,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 338,41</t>
+          <t>-27,5; 395,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-38,04%</t>
+          <t>-35,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,16; -3,36</t>
+          <t>-10,58; -2,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 8,33</t>
+          <t>-2,32; 8,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-51,87; -19,83</t>
+          <t>-51,14; -18,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 50,85</t>
+          <t>-11,05; 50,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-8,04</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-22,67%</t>
+          <t>-17,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,08; -2,3</t>
+          <t>-11,67; -1,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,25; 63,08</t>
+          <t>3,31; 65,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,15; -7,01</t>
+          <t>-30,68; -4,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,71; 297,43</t>
+          <t>12,56; 315,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-22,24%</t>
+          <t>-21,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,33; -3,55</t>
+          <t>-13,97; -2,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 7,27</t>
+          <t>-8,23; 7,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-33,65; -9,73</t>
+          <t>-33,24; -8,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 22,2</t>
+          <t>-18,94; 23,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,86%</t>
+          <t>-17,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -1,91</t>
+          <t>-4,09; -0,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,53; 32,27</t>
+          <t>2,28; 37,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,13; -12,78</t>
+          <t>-26,15; -7,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,72; 352,96</t>
+          <t>20,97; 457,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_COL-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_COL-Edad-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,21</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 5,51</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,02</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-0,57</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-46,63%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-46,63%</t>
         </is>
       </c>
     </row>
@@ -722,19 +722,19 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,34; 2,98</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 0,92</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-2,07; 0,0</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 2,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; 0,92</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -742,12 +742,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 200,16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 200,16</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-1,03</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-2,51</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-40,36%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-51,76%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-80,49%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-50,86%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-51,76%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-3,47; 0,68</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 0,46</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-4,44; -0,93</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; 0,5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,66; 0,46</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-82,67; 68,97</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-85,21; 30,41</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-97,3; -25,06</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-89,22; 104,27</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-85,21; 30,41</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-2,91</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-9,17%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-46,07%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>43,14%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-3,9; 2,34</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 3,85</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-5,12; -0,72</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,17; 6,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,48; 3,85</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-44,41; 47,36</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-33,72; 60,73</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-68,32; -13,3</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-27,5; 395,96</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-33,72; 60,73</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>-6,45</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,16</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>20,53%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-4,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>-35,09%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>16,11%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-4,57%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-1,39; 8,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,73; 4,78</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-10,58; -2,99</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 8,22</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,73; 4,78</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-6,82; 59,84</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-26,64; 21,21</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-51,14; -18,65</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; 50,98</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-26,64; 21,21</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>6,09</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-6,24</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>36,56</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,24</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-17,86%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>143,5%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-3,08%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-0,41; 12,32</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-8,0; 5,31</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-11,67; -1,21</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 65,92</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-8,0; 5,31</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-1,44; 57,2</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-18,18; 14,63</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-30,68; -4,01</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>12,56; 315,39</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-18,18; 14,63</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-8,23</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,39</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>-1,01%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>-21,45%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-1,05%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>19,29%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-8,74; 7,19</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 13,6</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-13,97; -2,66</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-8,23; 7,27</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 13,6</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-19,94; 22,83</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 38,68</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-33,24; -8,0</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-18,94; 23,19</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 38,68</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-2,66</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>11,23</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>23,1%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>-17,92%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>113,4%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,85; 4,23</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 3,21</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-4,09; -0,97</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,28; 37,37</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 3,21</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>6,96; 42,88</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-3,91; 21,9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>-26,15; -7,6</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>20,97; 457,62</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-3,91; 21,9</t>
         </is>
       </c>
     </row>
